--- a/VBA/SearchShapeForm/testdata/test.xlsx
+++ b/VBA/SearchShapeForm/testdata/test.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7877B54-DC26-4085-A52D-46660DB1F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA660A-58C4-4500-85C2-2037CADEFEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,10 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/VBA/SearchShapeForm/testdata/test.xlsx
+++ b/VBA/SearchShapeForm/testdata/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA660A-58C4-4500-85C2-2037CADEFEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D62B1-B534-4B98-BB36-1C28E923D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,16 +343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -367,7 +367,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4792266" y="476250"/>
+          <a:off x="5572125" y="2786062"/>
           <a:ext cx="1521619" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -399,7 +399,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>HOGE</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -674,8 +673,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/VBA/SearchShapeForm/testdata/test.xlsx
+++ b/VBA/SearchShapeForm/testdata/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D62B1-B534-4B98-BB36-1C28E923D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B648596-8B38-4CE6-86F0-316B07DC94CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="1320" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -369,6 +370,332 @@
         <a:xfrm>
           <a:off x="5572125" y="2786062"/>
           <a:ext cx="1521619" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HOGE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886CD081-4777-42AC-B0F0-C0683DF67B1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2120503" y="476250"/>
+          <a:ext cx="1521619" cy="1857375"/>
+          <a:chOff x="2124075" y="476250"/>
+          <a:chExt cx="1524000" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693A5B3E-8AFA-B842-7E8A-428A55F0CDBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124075" y="476250"/>
+            <a:ext cx="1524000" cy="923925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>HOGE</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A084FF3E-9600-7FD4-7425-49FA61275E30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124075" y="1409700"/>
+            <a:ext cx="1524000" cy="923925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503959</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B818AF62-3BCA-4E68-A536-6F4B8F33D084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14043748" y="5256068"/>
+          <a:ext cx="1521617" cy="1857375"/>
+          <a:chOff x="2124075" y="476250"/>
+          <a:chExt cx="1524000" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F6C094-5534-17A7-F028-0F4B0FD76921}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124075" y="476250"/>
+            <a:ext cx="1524000" cy="923925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>HOGE</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F804593-7ED7-9D5F-A99E-E9C03761F808}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2124075" y="1409700"/>
+            <a:ext cx="1524000" cy="923925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAE5306-6C45-402C-B102-A43FDC5AEC39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="2786062"/>
+          <a:ext cx="1524000" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,7 +1000,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394946CC-51CD-4DB8-98A7-3A68AC6E4027}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/VBA/SearchShapeForm/testdata/test.xlsx
+++ b/VBA/SearchShapeForm/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B648596-8B38-4CE6-86F0-316B07DC94CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126B9F1-E5F1-41A0-9323-E9B8618D6858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1320" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>hogefuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,14 +1007,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1014,14 +1029,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394946CC-51CD-4DB8-98A7-3A68AC6E4027}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/VBA/SearchShapeForm/testdata/test.xlsx
+++ b/VBA/SearchShapeForm/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SearchShapeForm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126B9F1-E5F1-41A0-9323-E9B8618D6858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4D1B8-A690-4BB5-8977-8F3921E9960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>hogefuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fuga</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1009,7 +1013,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1030,17 +1034,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394946CC-51CD-4DB8-98A7-3A68AC6E4027}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3"/>
+  <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
